--- a/webscrapping final/Bases finales/base_2021.xlsx
+++ b/webscrapping final/Bases finales/base_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianarodriguez/Documents/SED-git/webscrapping final/Bases finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{299D25EE-A527-C24E-8E81-E4C9448E0211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4110C4B-60A6-BB43-9A55-887A6602BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{A533ED86-E27D-2442-9916-1CE3342CA60F}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -361,6 +360,21 @@
   </si>
   <si>
     <t>https://ciudadflorida.com/william-agudelo-sedano-un-educador-y-revolucionario-ejemplar/?utm_source</t>
+  </si>
+  <si>
+    <t>Mitin</t>
+  </si>
+  <si>
+    <t>Protesta por las deficiencias en el sistema de salud del Magisterio</t>
+  </si>
+  <si>
+    <t>Mitin de la ADE frente a la Fiduprevisora en Bogotá denunciando las fallas del sistema de salud docente con el lema “ya no somos pacientes, sino impacientes”.</t>
+  </si>
+  <si>
+    <t>Publicación oficial de FECODE (Facebook)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/1B19Sf8YDB/</t>
   </si>
 </sst>
 </file>
@@ -452,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,7 +484,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +896,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="1">
         <v>44267</v>
       </c>
       <c r="B2" s="1">
@@ -1437,16 +1450,48 @@
         <v>62</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44336</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M12" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M14">
       <sortCondition ref="A1:A14"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A16:A1048576 A1:A4">
+  <conditionalFormatting sqref="A17:A1048576 A1:A4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A1048576 A7:A11 A1:A4">
+  <conditionalFormatting sqref="A17:A1048576 A7:A11 A1:A4">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/webscrapping final/Bases finales/base_2021.xlsx
+++ b/webscrapping final/Bases finales/base_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianarodriguez/Documents/SED-git/webscrapping final/Bases finales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/tm_rodriguez_uniandes_edu_co/Documents/2. Trabajo/CID - La Nacional/webscrapping/Bases finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4110C4B-60A6-BB43-9A55-887A6602BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A4110C4B-60A6-BB43-9A55-887A6602BF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D3A755-EA73-2840-84A5-8A3BF44D3EF6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{A533ED86-E27D-2442-9916-1CE3342CA60F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$16</definedName>
     <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>https://www.facebook.com/share/p/1B19Sf8YDB/</t>
+  </si>
+  <si>
+    <t>url_5</t>
+  </si>
+  <si>
+    <t>url_6</t>
+  </si>
+  <si>
+    <t>url_7</t>
   </si>
 </sst>
 </file>
@@ -521,6 +530,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,6 +907,15 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1483,11 +1505,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M12" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M14">
-      <sortCondition ref="A1:A14"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:P16" xr:uid="{83AE9D55-50D0-1F49-B863-640355E19871}"/>
   <conditionalFormatting sqref="A17:A1048576 A1:A4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
